--- a/Insumos/Semi-tratado (v2)/Semitratado.xlsx
+++ b/Insumos/Semi-tratado (v2)/Semitratado.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Valor de Venda (p/13kg)</t>
+          <t>Valor de Venda GLP (p/13kg)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
